--- a/model_exports/labels/2.0_True_False_3_0.xlsx
+++ b/model_exports/labels/2.0_True_False_3_0.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-675691648802795522</t>
+          <t>t-504042718663036928</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,7 +466,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-498854240069373953</t>
+          <t>t-504366068648148992</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-498919835905327104</t>
+          <t>t-504850389129129984</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,7 +492,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-504998704118394880</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -505,11 +505,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-508961106849574912</t>
+          <t>t-495123711071387649</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-509046359354511360</t>
+          <t>t-501732075599593472</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,11 +531,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-509083951655174144</t>
+          <t>t-624374054338867201</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -544,11 +544,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-509100730960314368</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,24 +557,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-509131102796414976</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-509142523403862017</t>
+          <t>t-887418286014570496</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -583,11 +583,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-509208349511262208</t>
+          <t>t-900499401638129664</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-509223264921878528</t>
+          <t>t-900502092674215936</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>t-509224131880300544</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -622,11 +622,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-511851013155090432</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-512006361937616896</t>
+          <t>t-585505175835648000</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,20 +648,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-512017939579432960</t>
+          <t>t-701855843747241986</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-798305189924982784</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -674,141 +674,141 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-815615714082095105</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-688456240490508289</t>
+          <t>t-816012131535613952</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-690710236638777344</t>
+          <t>t-816043428630839296</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-690724653006921728</t>
+          <t>t-816046695377158145</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-763135506188206084</t>
+          <t>t-816056629867188225</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-763744681616257025</t>
+          <t>t-816367923770118149</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-764320260182806528</t>
+          <t>t-816380623434592257</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-900499401638129664</t>
+          <t>t-848784048755531776</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-900502092674215936</t>
+          <t>t-848852185962037248</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-1016827484665499650</t>
+          <t>t-848864915762929664</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-1016832637904695296</t>
+          <t>t-848891572318072832</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-849117747430797312</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,20 +830,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-849222321772658688</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-498526651912032258</t>
+          <t>t-849255695249625088</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -856,24 +856,24 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-498546619508609024</t>
+          <t>t-849369868306665472</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-498600191088271361</t>
+          <t>t-849634891255951364</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -882,24 +882,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-498638581536399361</t>
+          <t>t-849637507117568000</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-498641690949713920</t>
+          <t>t-849667565186146304</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -908,20 +908,20 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-498643083517767681</t>
+          <t>t-849686849312501763</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-498648204872015872</t>
+          <t>t-849743357312024576</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -934,20 +934,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-551476214402387968</t>
+          <t>t-850026468906340353</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-551489050045988864</t>
+          <t>t-850319148420694016</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,24 +960,24 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-850426637086842884</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-850856929295552513</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-601392774370340865</t>
+          <t>t-858824188815056896</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-608798073561612289</t>
+          <t>t-859408582407749634</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,46 +1012,46 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-693851248634810368</t>
+          <t>t-859423315986874372</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-719525216439910400</t>
+          <t>t-859882605604425731</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-719704738913083392</t>
+          <t>t-865644367372967936</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-765195503457882112</t>
+          <t>t-866152720700514304</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,11 +1064,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-765297031346655232</t>
+          <t>t-867771334083923968</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1077,20 +1077,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-773705145389645824</t>
+          <t>t-906729471721570304</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,24 +1103,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-815615714082095105</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-816012131535613952</t>
+          <t>t-924109747627929600</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -1129,37 +1129,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-816043428630839296</t>
+          <t>t-945777508007464961</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-816046695377158145</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-816056629867188225</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1168,33 +1168,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-816367923770118149</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-816380623434592257</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-830539164638703616</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,37 +1207,37 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-900539002423562240</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-900561270843334662</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-900690069668933632</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -1246,7 +1246,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-906729471721570304</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1259,7 +1259,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-910935192742842370</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -1272,11 +1272,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-911026776717103105</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-922305869466890240</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,11 +1298,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-959172176346836993</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -1311,20 +1311,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-965645492616036357</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-965648872474398721</t>
+          <t>t-973668678867746816</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1337,20 +1337,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-965652051077357569</t>
+          <t>t-973683665661198337</t>
         </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-966072585061625856</t>
+          <t>t-982113517636435969</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-966155045300588545</t>
+          <t>t-982126921570893825</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,59 +1376,59 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-966356829596016640</t>
+          <t>t-1006110887999045632</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-966362179913093121</t>
+          <t>t-1006321460951027717</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-966449125788090370</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-966450069024239616</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-966465261950906369</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,7 +1441,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-966698278606856197</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1454,20 +1454,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-966704060270370817</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-966706278016999424</t>
+          <t>t-513019810272137216</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,7 +1480,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-966769885220163586</t>
+          <t>t-812540411746975744</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1493,7 +1493,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-1022084644039258112</t>
+          <t>t-822160325608734720</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1506,7 +1506,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-1030587514820669441</t>
+          <t>t-822824168110493696</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,20 +1519,20 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-1030625730407874563</t>
+          <t>t-823329247884251137</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-1031145618503360513</t>
+          <t>t-778024515909537792</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,11 +1545,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1031309689848508416</t>
+          <t>t-827438952974004224</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -1558,7 +1558,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-499691919128018944</t>
+          <t>t-503508088964800513</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,33 +1571,33 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-875896081233567744</t>
+          <t>t-503608708635844608</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-502103720327671808</t>
+          <t>t-582884078073987072</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-863147106038624256</t>
+          <t>t-582893069168611328</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,33 +1610,33 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-863168507747454977</t>
+          <t>t-685243474623336449</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-922536592429993985</t>
+          <t>t-754462771173924865</t>
         </is>
       </c>
       <c r="B92" t="n">
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-985698935074369536</t>
+          <t>t-768798517900906496</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-1026541253037453312</t>
+          <t>t-835997827369156608</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-1026546271392165888</t>
+          <t>t-841634951439220736</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,11 +1675,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-1026556162186117121</t>
+          <t>t-893144326049419264</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>1</v>
@@ -1688,37 +1688,37 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-1026678249978585088</t>
+          <t>t-987586031829569536</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1026720073308925953</t>
+          <t>t-987647086475673600</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-538622557084082176</t>
+          <t>t-987928780621668352</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-591245619513163777</t>
+          <t>t-1047054739547013120</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -1740,59 +1740,59 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-615459121891012608</t>
+          <t>t-1047068713986547712</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-641417749898522624</t>
+          <t>t-1047079117244399617</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-768798517900906496</t>
+          <t>t-1047083573738500096</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-801687875939078144</t>
+          <t>t-610241505777856512</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-893144326049419264</t>
+          <t>t-610629417715412992</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-992796128654524417</t>
+          <t>t-878279115006136321</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,11 +1818,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1047054739547013120</t>
+          <t>t-611838090278121474</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
         <v>1</v>
@@ -1831,33 +1831,33 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1047068713986547712</t>
+          <t>t-612267884463673344</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1047079117244399617</t>
+          <t>t-612280320520425472</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1047083573738500096</t>
+          <t>t-710560200558653440</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1049900608294137856</t>
+          <t>t-747995724978192384</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1061557072670670850</t>
+          <t>t-752623570010812416</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1061559942140780544</t>
+          <t>t-752689111933214722</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-752696262009450496</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,85 +1922,85 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-770776256669372416</t>
+          <t>t-752724839081791488</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-858084101320056832</t>
+          <t>t-767098705790906368</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-858490544007327747</t>
+          <t>t-908760840886767616</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-981152225723604993</t>
+          <t>t-923950718209359874</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-1006061673487138817</t>
+          <t>t-923955178688188416</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-507504670592356352</t>
+          <t>t-923988304076464128</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-507919904779948032</t>
+          <t>t-962999495893176320</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,33 +2013,33 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-593974566453555201</t>
+          <t>t-984799310717030402</t>
         </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-611838090278121474</t>
+          <t>t-985113601743704064</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-612267884463673344</t>
+          <t>t-985197038014001152</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -2052,7 +2052,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-612280320520425472</t>
+          <t>t-511616761545121792</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-639446444949180417</t>
+          <t>t-512768543989825541</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,33 +2078,33 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-767098705790906368</t>
+          <t>t-587673014826741760</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-764358428777078784</t>
+          <t>t-587688170382163969</t>
         </is>
       </c>
       <c r="B128" t="n">
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-832310546871484416</t>
+          <t>t-768897641946181632</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -2117,24 +2117,24 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-836993229967015937</t>
+          <t>t-768901368044134400</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-837317730147713024</t>
+          <t>t-1018620410819219456</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2143,20 +2143,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-858145943971037184</t>
+          <t>t-1027386544536150016</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-858516314167627776</t>
+          <t>t-641288611472654336</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,7 +2169,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-783792055160082432</t>
+          <t>t-774727266823581696</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -2182,24 +2182,24 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-818386811332558848</t>
+          <t>t-836993229967015937</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-818898970961473536</t>
+          <t>t-837317730147713024</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2208,37 +2208,37 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-981162868749033472</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-981305166392692736</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-919827029243187200</t>
+          <t>t-981306180961275904</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -2247,33 +2247,33 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-919919408797151233</t>
+          <t>t-1031705611933831168</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-919933275422027776</t>
+          <t>t-921072406919352320</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-919961378433224704</t>
+          <t>t-921102349552275456</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,7 +2286,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-920296060211400704</t>
+          <t>t-921122924505026560</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -2299,20 +2299,20 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-1047112720837951488</t>
+          <t>t-921266455856939008</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-1047367778901090304</t>
+          <t>t-921341244332113926</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -2325,11 +2325,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-542093659286429696</t>
+          <t>t-921699631360176128</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-552038248218767360</t>
+          <t>t-953648628647706624</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,11 +2351,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-552266751304798209</t>
+          <t>t-843394427347320833</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -2364,24 +2364,24 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-760723550810628097</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-872693400436219904</t>
+          <t>t-887680971797131264</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2390,20 +2390,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-752638920505131008</t>
+          <t>t-887683274591662080</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-887690953800253442</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -2416,33 +2416,33 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-987722164903251968</t>
+          <t>t-887715764404449281</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-604735735154012160</t>
+          <t>t-887751540173414404</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-611182304984109057</t>
+          <t>t-887923666507489280</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -2455,37 +2455,37 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-737748026983354372</t>
+          <t>t-887928668626055169</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-737752255571595264</t>
+          <t>t-887976731767918592</t>
         </is>
       </c>
       <c r="B157" t="n">
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-888083621801844737</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -2494,11 +2494,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-612099863975583744</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2507,37 +2507,37 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-612781430335082496</t>
+          <t>t-1047112720837951488</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-612783809587580928</t>
+          <t>t-1047367778901090304</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-621245283935121408</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-745905684248694789</t>
+          <t>t-833840054363619329</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-745992462448140288</t>
+          <t>t-752638920505131008</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -2572,11 +2572,11 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-746083614291562497</t>
+          <t>t-873219337427062785</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
@@ -2585,7 +2585,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-759898000407662594</t>
+          <t>t-879367414802153472</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,7 +2598,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-764015991344869376</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -2611,7 +2611,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-658242856386187264</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,11 +2624,11 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-707957967094685696</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
@@ -2637,37 +2637,37 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-1014543719205400576</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-948592886060380161</t>
+          <t>t-1014578901966876672</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-737748026983354372</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-756982430985166848</t>
+          <t>t-737752255571595264</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,72 +2689,72 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-756983738035077120</t>
+          <t>t-696837842702446592</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-757172169029804034</t>
+          <t>t-607855197835149312</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-1036699556560470016</t>
+          <t>t-698546841881853953</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-715573202714562561</t>
+          <t>t-759898000407662594</t>
         </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
       </c>
       <c r="C177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-766291748704423936</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-865899138726100992</t>
+          <t>t-782264769742934016</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-962803499766513664</t>
+          <t>t-826760200636002305</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,24 +2780,24 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-988107827615952898</t>
+          <t>t-870660332800397312</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-870684149173977089</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -2806,37 +2806,37 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-649543845269667840</t>
+          <t>t-972059634101047296</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-753685864471863300</t>
+          <t>t-979726568175165440</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-858172777098072064</t>
+          <t>t-809566350368796673</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-858203574500818944</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -2858,24 +2858,24 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-858267644507631616</t>
+          <t>t-913204200187863040</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-858374877706932224</t>
+          <t>t-941641219024748544</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
@@ -2884,46 +2884,46 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-858419995453292545</t>
+          <t>t-962803499766513664</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-1006535367464509440</t>
+          <t>t-1003953189820010496</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-1006670876169949190</t>
+          <t>t-753685864471863300</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-840282206979444737</t>
+          <t>t-858172777098072064</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,20 +2936,20 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-840289139450925056</t>
+          <t>t-858203574500818944</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-899745107900940288</t>
+          <t>t-858267644507631616</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,11 +2962,11 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-899747204986019844</t>
+          <t>t-858374877706932224</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
         <v>1</v>
@@ -2975,20 +2975,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-743015826601697281</t>
+          <t>t-858419995453292545</t>
         </is>
       </c>
       <c r="B196" t="n">
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-861649200160710656</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,59 +3001,59 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-890798435175063552</t>
         </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-1050435927066198018</t>
+          <t>t-695269003892228096</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-892821066799820805</t>
+          <t>t-883046827251179521</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-883048887786909698</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-1021604631217164289</t>
+          <t>t-883064523128791040</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,7 +3066,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1021652512343031808</t>
+          <t>t-883077275679432704</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1021683870188503041</t>
+          <t>t-1022049211108483072</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,7 +3092,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-1021786238024527873</t>
+          <t>t-1022100736476360704</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -3105,20 +3105,20 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-1050667252591120384</t>
+          <t>t-707739170878439424</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>1</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-514175192319680513</t>
+          <t>t-730685047137800192</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,7 +3131,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-730687533638619136</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -3144,7 +3144,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-911670405483651072</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -3157,20 +3157,20 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B210" t="n">
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-743015826601697281</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -3183,37 +3183,37 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-530194842861580288</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B212" t="n">
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-708426270242164736</t>
+          <t>t-1029734360872771584</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-752596726066843648</t>
+          <t>t-1042035586717110280</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C214" t="n">
         <v>1</v>
@@ -3222,11 +3222,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-753413745230094338</t>
+          <t>t-1044637096198041600</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3235,11 +3235,11 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-757613409047343105</t>
+          <t>t-1050667252591120384</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C216" t="n">
         <v>0</v>
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-764530848079155200</t>
+          <t>t-507905858265960448</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,46 +3261,46 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-764927216257949696</t>
+          <t>t-657266493659435008</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-794700824404430848</t>
+          <t>t-660036667412082688</t>
         </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-660641499701489665</t>
         </is>
       </c>
       <c r="B220" t="n">
         <v>1</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-746718356405882880</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -3313,7 +3313,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-952979792495816704</t>
+          <t>t-785997107094093825</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-965598107676430336</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,11 +3339,11 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-1014570924681687042</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
         <v>1</v>
@@ -3352,7 +3352,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-1026272267364253698</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-1028684190169149440</t>
+          <t>t-1035669454246563841</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,20 +3378,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-1028764502517592065</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-756927547049320448</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,11 +3404,11 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-561309176475824128</t>
+          <t>t-885230061556813824</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C229" t="n">
         <v>1</v>
@@ -3417,20 +3417,20 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-620793830413959168</t>
+          <t>t-885519574443020288</t>
         </is>
       </c>
       <c r="B230" t="n">
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-636611275666128896</t>
+          <t>t-886785151694512128</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -3443,11 +3443,11 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-748353178270199808</t>
+          <t>t-886797636501520384</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -3456,11 +3456,11 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-760920272639852545</t>
+          <t>t-886952472035549185</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -3469,7 +3469,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-760967260039106560</t>
+          <t>t-887152237432061952</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -3482,7 +3482,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-760972532421984261</t>
+          <t>t-887308832208293888</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -3495,46 +3495,46 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-760978989359833088</t>
+          <t>t-888147986982649856</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-761017815637696513</t>
+          <t>t-967489391517192192</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-761048712214818816</t>
+          <t>t-1008536493269237760</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-761049587066867712</t>
+          <t>t-1042832069506871296</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-761050328493985794</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,7 +3560,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-761057847262142465</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -3573,33 +3573,33 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-683790340701073408</t>
         </is>
       </c>
       <c r="B242" t="n">
         <v>1</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1008536493269237760</t>
+          <t>t-761355220198756352</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1016850546236542983</t>
+          <t>t-761372714925891586</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -3612,24 +3612,24 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-836289804664979457</t>
+          <t>t-958376851084337153</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-903370281829498882</t>
+          <t>t-1042440160749780992</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
         <v>1</v>
@@ -3638,37 +3638,37 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-569509595133173761</t>
+          <t>t-1050781684117987329</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-630004911024046080</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-630051857654751232</t>
+          <t>t-653152901892739072</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C249" t="n">
         <v>1</v>
@@ -3677,46 +3677,46 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-630833400857919488</t>
+          <t>t-653993411570192384</t>
         </is>
       </c>
       <c r="B250" t="n">
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-673837939248472064</t>
+          <t>t-681483416165048320</t>
         </is>
       </c>
       <c r="B251" t="n">
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-708952691926548480</t>
         </is>
       </c>
       <c r="B252" t="n">
         <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-757849369496301569</t>
+          <t>t-739781293882347520</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-758572772490637312</t>
+          <t>t-767994872578056192</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,20 +3742,20 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-810931684396896256</t>
+          <t>t-832931106873819136</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-811056347773026304</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B256" t="n">
@@ -3768,24 +3768,24 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-811268248448724993</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-913153226706472965</t>
+          <t>t-1006258184636510210</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -3794,11 +3794,11 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-1041944531015483392</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="n">
         <v>1</v>
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-984477965856772096</t>
+          <t>t-1042049144620285953</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,20 +3820,20 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-984491425478971393</t>
+          <t>t-541450804008218624</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-984517270725644288</t>
+          <t>t-602992695011889152</t>
         </is>
       </c>
       <c r="B262" t="n">
@@ -3846,20 +3846,20 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-985567499843489798</t>
+          <t>t-659041979200880644</t>
         </is>
       </c>
       <c r="B263" t="n">
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-1003317489990848512</t>
+          <t>t-684979291696664576</t>
         </is>
       </c>
       <c r="B264" t="n">
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-1003350897521459202</t>
+          <t>t-893162180492787716</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,89 +3885,89 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-1003359993201025024</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-1003379549600731139</t>
+          <t>t-670921727346614272</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-1049984041888505856</t>
+          <t>t-727758683510329344</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-1051063984038776837</t>
+          <t>t-727889856274247680</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-769170271928483840</t>
         </is>
       </c>
       <c r="B270" t="n">
         <v>0</v>
       </c>
       <c r="C270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-538818433920827392</t>
+          <t>t-801380815166930945</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,24 +3976,24 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-545590349045833728</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-696805827110428676</t>
+          <t>t-581325099023892480</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C274" t="n">
         <v>1</v>
@@ -4002,7 +4002,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-581326319130116096</t>
         </is>
       </c>
       <c r="B275" t="n">
@@ -4015,33 +4015,33 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-669588910935285760</t>
+          <t>t-581406863343779840</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-669601333348073473</t>
+          <t>t-581587820248109056</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-803598066133573632</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,20 +4054,20 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-1060159476664356864</t>
+          <t>t-933464546110529538</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-578199507671904256</t>
+          <t>t-686490326228402176</t>
         </is>
       </c>
       <c r="B280" t="n">
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-578943021716250624</t>
+          <t>t-687307828932030464</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,24 +4093,24 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-803598066133573632</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-565107354606518272</t>
+          <t>t-668121380727226368</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C283" t="n">
         <v>1</v>
@@ -4119,37 +4119,37 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-628489671656517632</t>
+          <t>t-800018818399694848</t>
         </is>
       </c>
       <c r="B284" t="n">
         <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-862378347007025154</t>
+          <t>t-800716652195282946</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-984138305477505025</t>
+          <t>t-884449137407791104</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C286" t="n">
         <v>1</v>
@@ -4158,20 +4158,20 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-885109132638003200</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-885140571232374784</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,20 +4184,20 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-998345989382705152</t>
+          <t>t-885166687825350662</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-787849177581649920</t>
+          <t>t-885188751936417793</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,20 +4210,20 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-899250634855251968</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-913738686994501632</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,20 +4236,20 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-892449776129777665</t>
+          <t>t-913756608974540800</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-892462041277091840</t>
+          <t>t-913812012400087040</t>
         </is>
       </c>
       <c r="B294" t="n">
@@ -4262,7 +4262,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-892471980875808773</t>
+          <t>t-576618970368876544</t>
         </is>
       </c>
       <c r="B295" t="n">
@@ -4275,7 +4275,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-892472490483646466</t>
+          <t>t-645024639639535616</t>
         </is>
       </c>
       <c r="B296" t="n">
@@ -4288,7 +4288,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-892606487482089472</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,37 +4301,37 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-892633367342088192</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>1</v>
       </c>
       <c r="C298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-892700840817045504</t>
+          <t>t-729341140499976193</t>
         </is>
       </c>
       <c r="B299" t="n">
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-892731725897281538</t>
+          <t>t-729421969410564096</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,46 +4340,46 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-924289234399322112</t>
+          <t>t-729436964269658112</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C301" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-764130662836084739</t>
+          <t>t-729446762138591232</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C302" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-925720058432811008</t>
+          <t>t-729454167735959552</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-1012441483654332417</t>
+          <t>t-729749802209054720</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-573279947445420034</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4412,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="C306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-884636889948471296</t>
+          <t>t-1047526401644138497</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-889534953825779712</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-889639312169500672</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>0</v>
@@ -4483,11 +4483,11 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-609166003570802689</t>
+          <t>t-935929183758356480</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C312" t="n">
         <v>1</v>
@@ -4496,20 +4496,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-579030352271917056</t>
+          <t>t-822759706078969856</t>
         </is>
       </c>
       <c r="B313" t="n">
         <v>1</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-579089809991331841</t>
+          <t>t-822817083591446532</t>
         </is>
       </c>
       <c r="B314" t="n">
@@ -4548,63 +4548,63 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-640921153591050240</t>
+          <t>t-724222646435508224</t>
         </is>
       </c>
       <c r="B317" t="n">
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-669944728155090944</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B318" t="n">
         <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-724222646435508224</t>
+          <t>t-872233585960337408</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>0</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-774740590848188416</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B320" t="n">
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-912188711261036544</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C321" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-912397778260840448</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,24 +4626,24 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-912428211253972997</t>
+          <t>t-644964294954741760</t>
         </is>
       </c>
       <c r="B323" t="n">
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-992231007083421698</t>
+          <t>t-622598644009668608</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C324" t="n">
         <v>1</v>
@@ -4652,46 +4652,46 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-992892560405250048</t>
+          <t>t-639559017052803076</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-1028993321757077505</t>
+          <t>t-1050079983765311488</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-671722697408290816</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-756001538783326208</t>
         </is>
       </c>
       <c r="B328" t="n">
@@ -4704,20 +4704,20 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-756128433025843200</t>
         </is>
       </c>
       <c r="B329" t="n">
         <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1049670308142206978</t>
+          <t>t-756153001300156416</t>
         </is>
       </c>
       <c r="B330" t="n">
@@ -4730,59 +4730,59 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-610843183715463168</t>
+          <t>t-756172674531942400</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-880261784304631810</t>
+          <t>t-1006709802775412736</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-639100384343101440</t>
+          <t>t-876856640372387842</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-639559017052803076</t>
+          <t>t-678946767459618818</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-1050079983765311488</t>
+          <t>t-679082878148341760</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,7 +4795,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-646419866795118592</t>
+          <t>t-762366384747589634</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,37 +4808,37 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-762414153185173504</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-762454271832928257</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-904587230177443840</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C339" t="n">
         <v>1</v>
@@ -4847,50 +4847,50 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-905072243822264320</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-905081971667296257</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-677918822104473600</t>
+          <t>t-905280030833614849</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1006709802775412736</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C343" t="n">
         <v>0</v>
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-1041361257410904064</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-1041679427464298496</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,24 +4925,24 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-736702899519004674</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-910961880700559360</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
         <v>0</v>
@@ -4951,7 +4951,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-661127792231321600</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B348" t="n">
@@ -4964,7 +4964,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-667518003613818880</t>
+          <t>t-677631116958896129</t>
         </is>
       </c>
       <c r="B349" t="n">
@@ -4977,33 +4977,33 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-794366500865982467</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-794366500865982467</t>
+          <t>t-692348550416633857</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-679420394223345665</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-842138233173626880</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-842141623454687232</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5042,11 +5042,11 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-842494366820286465</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,33 +5055,33 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-725450676986335232</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-734458703231885312</t>
+          <t>t-716262349536149504</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-720246081364365312</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,33 +5094,33 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-720295493985677312</t>
         </is>
       </c>
       <c r="B359" t="n">
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-1011820273774006272</t>
+          <t>t-859881873865973760</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-1012308763422937089</t>
+          <t>t-859891336627048448</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-1021764160093401089</t>
+          <t>t-859891655167664129</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-1022188431483387905</t>
+          <t>t-725450676986335232</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,24 +5159,24 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-1022188766964998144</t>
+          <t>t-913012097595867137</t>
         </is>
       </c>
       <c r="B364" t="n">
         <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-1022577266117824514</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C365" t="n">
         <v>0</v>
@@ -5185,7 +5185,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-1023560708376748032</t>
+          <t>t-749466819581411328</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,20 +5198,20 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-1023767948165562368</t>
+          <t>t-751165986527674368</t>
         </is>
       </c>
       <c r="B367" t="n">
         <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-1023931290045829121</t>
+          <t>t-751167208219406336</t>
         </is>
       </c>
       <c r="B368" t="n">
@@ -5224,20 +5224,20 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-1024052229152669696</t>
+          <t>t-1011820273774006272</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>1</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-1035527464511053825</t>
+          <t>t-1012308763422937089</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,11 +5250,11 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-753754552936136704</t>
+          <t>t-1025467650649014283</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C371" t="n">
         <v>0</v>
@@ -5263,20 +5263,20 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-880159202567753728</t>
+          <t>t-1025523844994412544</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-911704954636824576</t>
+          <t>t-1025538626191380480</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,7 +5289,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-843607928133292033</t>
+          <t>t-1026286692037222401</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,46 +5302,46 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-765596657039708160</t>
+          <t>t-1026301775203037184</t>
         </is>
       </c>
       <c r="B375" t="n">
         <v>1</v>
       </c>
       <c r="C375" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-766010493563568129</t>
+          <t>t-1026820332710252544</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-925465361557975040</t>
+          <t>t-1027725663703363584</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C377" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-785262083638169600</t>
+          <t>t-1035527464511053825</t>
         </is>
       </c>
       <c r="B378" t="n">
@@ -5354,20 +5354,20 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-797647100565716992</t>
+          <t>t-1046763431649574912</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-797655572573143040</t>
+          <t>t-843607928133292033</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,7 +5380,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-797814805772046336</t>
+          <t>t-915593286122950656</t>
         </is>
       </c>
       <c r="B381" t="n">
@@ -5393,37 +5393,37 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-915603421222309888</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-915603564743073792</t>
         </is>
       </c>
       <c r="B383" t="n">
         <v>1</v>
       </c>
       <c r="C383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-857651953928744960</t>
+          <t>t-922899400032178176</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C384" t="n">
         <v>1</v>
@@ -5432,20 +5432,20 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-922934157185110016</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-841401006797815808</t>
+          <t>t-965898424523591681</t>
         </is>
       </c>
       <c r="B386" t="n">
@@ -5458,33 +5458,33 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-1032899444918898688</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-864828748495020032</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>1</v>
       </c>
       <c r="C388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-884885746984681473</t>
+          <t>t-804685877838565376</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,20 +5497,20 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-884938114657128448</t>
+          <t>t-814469186323939328</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-891439389787774978</t>
+          <t>t-823317212446556161</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,20 +5523,20 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-891452469061996544</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>1</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-901254745888878592</t>
+          <t>t-850386711385260034</t>
         </is>
       </c>
       <c r="B393" t="n">
@@ -5549,7 +5549,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-902559120888184833</t>
+          <t>t-863757133304795136</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,7 +5562,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-903611928827674624</t>
+          <t>t-849301263959420929</t>
         </is>
       </c>
       <c r="B395" t="n">
@@ -5575,46 +5575,46 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-880971995671875586</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-906573891346165760</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C397" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-974764041968132096</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-974840717116956673</t>
+          <t>t-708340740556980225</t>
         </is>
       </c>
       <c r="B399" t="n">
@@ -5627,7 +5627,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-1042831980822454273</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B400" t="n">
@@ -5640,37 +5640,37 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-1042864703981084672</t>
+          <t>t-965605976698126341</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C401" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-1042868533963776005</t>
+          <t>t-1040961500553388033</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-1043255346553389058</t>
+          <t>t-1057306605287550976</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C403" t="n">
         <v>0</v>
@@ -5679,20 +5679,20 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-499943241962487808</t>
+          <t>t-1057548272053698560</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-519240969838166016</t>
+          <t>t-1027294707855048705</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-523536371525623808</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,24 +5718,24 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-586533262912315392</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C408" t="n">
         <v>1</v>
@@ -5744,24 +5744,24 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-616316575658807296</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-630691491766251520</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C410" t="n">
         <v>0</v>
@@ -5770,24 +5770,24 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-673357306764140544</t>
+          <t>t-529740815221153793</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-927695512287043584</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C412" t="n">
         <v>1</v>
@@ -5796,7 +5796,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-991032269405073408</t>
+          <t>t-819866466162012160</t>
         </is>
       </c>
       <c r="B413" t="n">
@@ -5809,7 +5809,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-991077450368061440</t>
+          <t>t-875802481292439553</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-1019582623679696898</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,72 +5835,72 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-538351189679939584</t>
+          <t>t-636255173036388352</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-927168021512126464</t>
+          <t>t-677902230650003457</t>
         </is>
       </c>
       <c r="B418" t="n">
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-950172807996026880</t>
+          <t>t-691624168824115200</t>
         </is>
       </c>
       <c r="B419" t="n">
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-950367246299394048</t>
+          <t>t-691706624386404353</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-1051696567651106816</t>
+          <t>t-702966418057330688</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-1051874637942947840</t>
+          <t>t-703646494901927936</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-1001002093895921665</t>
+          <t>t-704942166137806848</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,33 +5939,33 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-699600707318587392</t>
+          <t>t-704999838627340289</t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-1027294707855048705</t>
+          <t>t-705097327791443968</t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-706027191709077505</t>
         </is>
       </c>
       <c r="B426" t="n">
@@ -5978,89 +5978,89 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-782797451639914497</t>
+          <t>t-706161724236423169</t>
         </is>
       </c>
       <c r="B427" t="n">
         <v>0</v>
       </c>
       <c r="C427" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-529740815221153793</t>
+          <t>t-706568676607205384</t>
         </is>
       </c>
       <c r="B428" t="n">
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-788324770765008896</t>
+          <t>t-706777295768461313</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-865447859285405696</t>
+          <t>t-706777701902917632</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-865573879527428096</t>
+          <t>t-706793199285739522</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-875802481292439553</t>
+          <t>t-707823125115879424</t>
         </is>
       </c>
       <c r="B432" t="n">
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-541965663666184192</t>
+          <t>t-707871375474749441</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C433" t="n">
         <v>0</v>
@@ -6069,11 +6069,11 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-1027585082050207745</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C434" t="n">
         <v>1</v>
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-704942166137806848</t>
+          <t>t-834770863664795650</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,33 +6095,33 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-704999838627340289</t>
+          <t>t-842006165705875457</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C436" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-705097327791443968</t>
+          <t>t-914844848359985152</t>
         </is>
       </c>
       <c r="B437" t="n">
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-706027191709077505</t>
+          <t>t-915131811310714880</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,20 +6134,20 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-706161724236423169</t>
+          <t>t-915495031691235329</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-706568676607205384</t>
+          <t>t-915561177966505984</t>
         </is>
       </c>
       <c r="B440" t="n">
@@ -6160,46 +6160,46 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-706777295768461313</t>
+          <t>t-1008363588552151040</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C441" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-706777701902917632</t>
+          <t>t-1057165607152562176</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-706793199285739522</t>
+          <t>t-740095983602782208</t>
         </is>
       </c>
       <c r="B443" t="n">
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-707823125115879424</t>
+          <t>t-750337802257129474</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-707871375474749441</t>
+          <t>t-800633887386988544</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,7 +6225,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-762281733672820736</t>
+          <t>t-816609916018454528</t>
         </is>
       </c>
       <c r="B446" t="n">
@@ -6238,24 +6238,24 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-787588682731626496</t>
+          <t>t-557320938375905282</t>
         </is>
       </c>
       <c r="B447" t="n">
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-806453539409162240</t>
+          <t>t-571286359673053184</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
         <v>1</v>
@@ -6264,46 +6264,46 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-806476961451216896</t>
+          <t>t-571344417145135105</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-836980367781396480</t>
+          <t>t-684255556144619520</t>
         </is>
       </c>
       <c r="B450" t="n">
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-913063437118341121</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-976509689000325120</t>
+          <t>t-565566410605473792</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,11 +6316,11 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-1006399568249008128</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C453" t="n">
         <v>0</v>
@@ -6329,46 +6329,46 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-1006422910762995712</t>
+          <t>t-567369806647951362</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-1006422931839299584</t>
+          <t>t-567639888489500672</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-1006427045709180929</t>
+          <t>t-969482754407661568</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-1006463635693203456</t>
+          <t>t-570990543225950209</t>
         </is>
       </c>
       <c r="B457" t="n">
@@ -6381,11 +6381,11 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-1038002421543391232</t>
+          <t>t-633755138834874368</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C458" t="n">
         <v>1</v>
@@ -6394,20 +6394,20 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-1006487935733174274</t>
         </is>
       </c>
       <c r="B459" t="n">
         <v>0</v>
       </c>
       <c r="C459" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-1024201138277638144</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,7 +6420,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-832880826807418880</t>
+          <t>t-837336632667877376</t>
         </is>
       </c>
       <c r="B461" t="n">
@@ -6433,37 +6433,37 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-996477889779511296</t>
+          <t>t-722410262058397697</t>
         </is>
       </c>
       <c r="B462" t="n">
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-837620098416459776</t>
+          <t>t-859839256700882944</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-860843222091935744</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C464" t="n">
         <v>0</v>
@@ -6472,11 +6472,11 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-720181387190530048</t>
+          <t>t-861496628741640192</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C465" t="n">
         <v>1</v>
@@ -6485,20 +6485,20 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-861227956118716416</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B466" t="n">
         <v>0</v>
       </c>
       <c r="C466" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-970012076428193796</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B467" t="n">
@@ -6511,11 +6511,11 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-722410262058397697</t>
+          <t>t-591541513768673280</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C468" t="n">
         <v>1</v>
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-850396935152422913</t>
+          <t>t-741661270017970176</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,11 +6537,11 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-746801790117646336</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C470" t="n">
         <v>0</v>
@@ -6550,33 +6550,33 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-988840187785568257</t>
+          <t>t-746821154074206210</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-1005061843843289088</t>
+          <t>t-892583343426072576</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-587481090845179905</t>
+          <t>t-593397061376147456</t>
         </is>
       </c>
       <c r="B473" t="n">
@@ -6589,20 +6589,20 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-591228165827260416</t>
+          <t>t-624613462476337152</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-737572670372339712</t>
+          <t>t-624628271745998852</t>
         </is>
       </c>
       <c r="B475" t="n">
@@ -6615,11 +6615,11 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-592904512131768321</t>
+          <t>t-877183876254269441</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C476" t="n">
         <v>0</v>
@@ -6628,7 +6628,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-595251975568109568</t>
+          <t>t-877213422538158080</t>
         </is>
       </c>
       <c r="B477" t="n">
@@ -6641,33 +6641,33 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-608642817427156992</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C478" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-942758921533624320</t>
+          <t>t-609461898141147136</t>
         </is>
       </c>
       <c r="B479" t="n">
         <v>1</v>
       </c>
       <c r="C479" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-801458708786151425</t>
+          <t>t-753246884345487361</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,11 +6680,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-956419595136585729</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>1</v>
@@ -6693,24 +6693,24 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-800696529770151938</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-949260261575229441</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C483" t="n">
         <v>1</v>
@@ -6719,7 +6719,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-601387987851677696</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B484" t="n">
@@ -6732,46 +6732,46 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-601436583682703361</t>
+          <t>t-997420355043102720</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C485" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-618340855657721856</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-968152808062160896</t>
+          <t>t-619208680349765633</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-608642817427156992</t>
+          <t>t-639695836943884288</t>
         </is>
       </c>
       <c r="B488" t="n">
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-609461898141147136</t>
+          <t>t-953295637679951872</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,20 +6797,20 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-953311292475011072</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-618340855657721856</t>
+          <t>t-984045729260982272</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,20 +6823,20 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-884366275937521664</t>
+          <t>t-660041764225589248</t>
         </is>
       </c>
       <c r="B492" t="n">
         <v>1</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-633506882188021761</t>
+          <t>t-674905913438769153</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,11 +6849,11 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-849766480828878849</t>
+          <t>t-943797632639610881</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C494" t="n">
         <v>0</v>
@@ -6862,7 +6862,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-715965241637470208</t>
         </is>
       </c>
       <c r="B495" t="n">
@@ -6875,20 +6875,20 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-1013800752567996416</t>
+          <t>t-730493187534413824</t>
         </is>
       </c>
       <c r="B496" t="n">
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-1032956238051659778</t>
+          <t>t-730679314916757504</t>
         </is>
       </c>
       <c r="B497" t="n">
@@ -6901,20 +6901,20 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-656425382145597440</t>
+          <t>t-751418791951790080</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-661463139213565952</t>
+          <t>t-963803678573547520</t>
         </is>
       </c>
       <c r="B499" t="n">
@@ -6927,7 +6927,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-910016271554576384</t>
+          <t>t-1003603539539742720</t>
         </is>
       </c>
       <c r="B500" t="n">
@@ -6940,20 +6940,20 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-674905913438769153</t>
+          <t>t-952868151414403072</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-685089211784019968</t>
+          <t>t-956210090935312384</t>
         </is>
       </c>
       <c r="B502" t="n">
@@ -6966,20 +6966,20 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-687198236776464384</t>
+          <t>t-956914853922459649</t>
         </is>
       </c>
       <c r="B503" t="n">
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-708088836748910592</t>
+          <t>t-957307123943256064</t>
         </is>
       </c>
       <c r="B504" t="n">
@@ -6992,7 +6992,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-715202576552169472</t>
+          <t>t-949338992599883776</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,37 +7005,37 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-949550500269166593</t>
         </is>
       </c>
       <c r="B506" t="n">
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-957930793187397632</t>
+          <t>t-958391208602193920</t>
         </is>
       </c>
       <c r="B507" t="n">
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-737703959993913344</t>
+          <t>t-738790953792720896</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
         <v>1</v>
@@ -7044,7 +7044,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-737753796202385408</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,20 +7057,20 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-737755886211477504</t>
+          <t>t-860462128263811072</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C510" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-737784335567364096</t>
+          <t>t-740517137236647936</t>
         </is>
       </c>
       <c r="B511" t="n">
@@ -7083,46 +7083,46 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-737884729626791936</t>
+          <t>t-740666936263118848</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-737979350088323072</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-1006483455209766912</t>
+          <t>t-755694559401762816</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-1006781895278055424</t>
+          <t>t-766238666905747456</t>
         </is>
       </c>
       <c r="B515" t="n">
@@ -7135,11 +7135,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-1006804114234322945</t>
+          <t>t-775632377695600641</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C516" t="n">
         <v>1</v>
@@ -7148,7 +7148,7 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-806105457077186561</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,24 +7161,24 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-956876178509516800</t>
+          <t>t-806175022247280641</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-806834354802438144</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
         <v>1</v>
@@ -7187,20 +7187,20 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-741525012784553985</t>
+          <t>t-819911710349922305</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-834802174559412225</t>
         </is>
       </c>
       <c r="B521" t="n">
@@ -7213,7 +7213,7 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-746386418465914880</t>
+          <t>t-851409413646802945</t>
         </is>
       </c>
       <c r="B522" t="n">
@@ -7226,20 +7226,20 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-760154379307458560</t>
+          <t>t-952289558770651136</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-767290506456039424</t>
+          <t>t-952536637413584897</t>
         </is>
       </c>
       <c r="B524" t="n">
@@ -7252,11 +7252,11 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-952649290148704259</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
         <v>1</v>
@@ -7265,7 +7265,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-834086991646048256</t>
+          <t>t-952989314534617088</t>
         </is>
       </c>
       <c r="B526" t="n">
@@ -7278,33 +7278,33 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-834349788053266432</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-834805481759789056</t>
+          <t>t-991783836206936065</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C528" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,33 +7317,33 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-946052034461040640</t>
+          <t>t-904852554470883329</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-970932114597335040</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-892499939137335296</t>
+          <t>t-938446444700237824</t>
         </is>
       </c>
       <c r="B532" t="n">
@@ -7356,24 +7356,24 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-894025914476105728</t>
+          <t>t-949999091047477249</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C534" t="n">
         <v>1</v>
@@ -7382,33 +7382,33 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-1038090181595877376</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-904852554470883329</t>
+          <t>t-953922137156411392</t>
         </is>
       </c>
       <c r="B536" t="n">
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-953919004132986880</t>
+          <t>t-988323500330045442</t>
         </is>
       </c>
       <c r="B537" t="n">
@@ -7421,11 +7421,11 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-970932114597335040</t>
+          <t>t-1004723222363955200</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
         <v>0</v>
@@ -7434,11 +7434,11 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-913806353851969537</t>
+          <t>t-786169556586770432</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C539" t="n">
         <v>1</v>
@@ -7447,7 +7447,7 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-948508791448002560</t>
+          <t>t-498746062224375809</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,24 +7460,24 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-949166298210082816</t>
+          <t>t-499104320717996032</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-958848005502681088</t>
+          <t>t-532541340023017473</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C542" t="n">
         <v>0</v>
@@ -7486,33 +7486,33 @@
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-959068004729475072</t>
+          <t>t-616630261191716864</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-986982915262308353</t>
+          <t>t-620843348505432064</t>
         </is>
       </c>
       <c r="B544" t="n">
         <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-992783370114433024</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B545" t="n">
@@ -7525,20 +7525,20 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-950875222734929921</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B546" t="n">
         <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-950925554487738369</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B547" t="n">
@@ -7551,20 +7551,20 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-666296658595069952</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C548" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-666325159947563008</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,7 +7577,7 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-673149443068309504</t>
+          <t>t-658803849289990144</t>
         </is>
       </c>
       <c r="B550" t="n">
@@ -7590,20 +7590,20 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-675498810152325120</t>
+          <t>t-659014102774325248</t>
         </is>
       </c>
       <c r="B551" t="n">
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-676725475671085057</t>
+          <t>t-666134929525178369</t>
         </is>
       </c>
       <c r="B552" t="n">
@@ -7616,24 +7616,24 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-931841011340296192</t>
+          <t>t-666141677652848640</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C553" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-500549350234554368</t>
+          <t>t-666146479564681217</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C554" t="n">
         <v>1</v>
@@ -7642,7 +7642,7 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-510001639617351681</t>
+          <t>t-666155143696506880</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,20 +7655,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-512537797442273280</t>
+          <t>t-666158894691954689</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-537546537975685120</t>
+          <t>t-666536410439028736</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,24 +7681,24 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-537578272348205056</t>
+          <t>t-666602420022194177</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-537578565139582976</t>
+          <t>t-666664955077242881</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C559" t="n">
         <v>1</v>
@@ -7707,7 +7707,7 @@
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-537896255347646465</t>
+          <t>t-667221889505296388</t>
         </is>
       </c>
       <c r="B560" t="n">
@@ -7720,11 +7720,11 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-667625624421445632</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C561" t="n">
         <v>1</v>
@@ -7733,11 +7733,11 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-667976594137350144</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C562" t="n">
         <v>1</v>
@@ -7746,24 +7746,24 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-668796235004932096</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-669882207800942593</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C564" t="n">
         <v>0</v>
@@ -7772,46 +7772,46 @@
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-823528889578377221</t>
+          <t>t-730666173340209152</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-823565116511617024</t>
+          <t>t-736860584470159360</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C566" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-823567614731382784</t>
+          <t>t-785398387059269632</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C567" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-823729659921760256</t>
+          <t>t-796846317632790528</t>
         </is>
       </c>
       <c r="B568" t="n">
@@ -7824,46 +7824,46 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-823776797145763840</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-823797969539338240</t>
+          <t>t-823528889578377221</t>
         </is>
       </c>
       <c r="B570" t="n">
         <v>1</v>
       </c>
       <c r="C570" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-824162412861464576</t>
+          <t>t-823565116511617024</t>
         </is>
       </c>
       <c r="B571" t="n">
         <v>1</v>
       </c>
       <c r="C571" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-824171170761162752</t>
+          <t>t-823567614731382784</t>
         </is>
       </c>
       <c r="B572" t="n">
@@ -7876,7 +7876,7 @@
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-824209269432012802</t>
+          <t>t-823729659921760256</t>
         </is>
       </c>
       <c r="B573" t="n">
@@ -7889,46 +7889,46 @@
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-824256850644176897</t>
+          <t>t-823776797145763840</t>
         </is>
       </c>
       <c r="B574" t="n">
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-824424167730655233</t>
+          <t>t-823797969539338240</t>
         </is>
       </c>
       <c r="B575" t="n">
         <v>1</v>
       </c>
       <c r="C575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-824425957838581760</t>
+          <t>t-824162412861464576</t>
         </is>
       </c>
       <c r="B576" t="n">
         <v>1</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-824537640233889792</t>
+          <t>t-824171170761162752</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-824596362859667456</t>
+          <t>t-824209269432012802</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,7 +7954,7 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-824596669597569025</t>
+          <t>t-824256850644176897</t>
         </is>
       </c>
       <c r="B579" t="n">
@@ -7967,7 +7967,7 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-824814008108593152</t>
+          <t>t-824424167730655233</t>
         </is>
       </c>
       <c r="B580" t="n">
@@ -7980,7 +7980,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-824990518815842304</t>
+          <t>t-824425957838581760</t>
         </is>
       </c>
       <c r="B581" t="n">
@@ -7993,20 +7993,20 @@
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-825140161293934594</t>
+          <t>t-824537640233889792</t>
         </is>
       </c>
       <c r="B582" t="n">
         <v>1</v>
       </c>
       <c r="C582" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-825322589002149888</t>
+          <t>t-824596362859667456</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-825486203914842112</t>
+          <t>t-824596669597569025</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,7 +8032,7 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-875288006172831744</t>
+          <t>t-824814008108593152</t>
         </is>
       </c>
       <c r="B585" t="n">
@@ -8045,7 +8045,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-824990518815842304</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,7 +8058,7 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-825140161293934594</t>
         </is>
       </c>
       <c r="B587" t="n">
@@ -8071,24 +8071,24 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-914672240901287936</t>
+          <t>t-825322589002149888</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-944057571853287424</t>
+          <t>t-825486203914842112</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-1061409798053224448</t>
+          <t>t-831833976029454338</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,37 +8110,37 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-1061535382406348800</t>
+          <t>t-978263707544305664</t>
         </is>
       </c>
       <c r="B591" t="n">
         <v>1</v>
       </c>
       <c r="C591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-509160710316650496</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-509293535221145601</t>
+          <t>t-1061409798053224448</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
         <v>1</v>
@@ -8149,20 +8149,20 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-1061535382406348800</t>
         </is>
       </c>
       <c r="B594" t="n">
         <v>1</v>
       </c>
       <c r="C594" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-499804424827457538</t>
         </is>
       </c>
       <c r="B595" t="n">
@@ -8175,7 +8175,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-499826521846972416</t>
         </is>
       </c>
       <c r="B596" t="n">
@@ -8188,20 +8188,20 @@
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-1015491573092528128</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-546829406539243520</t>
+          <t>t-632870673115774976</t>
         </is>
       </c>
       <c r="B598" t="n">
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-546846288554500096</t>
+          <t>t-727016962102980608</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,7 +8227,7 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-547603292180578305</t>
+          <t>t-727141031607595008</t>
         </is>
       </c>
       <c r="B600" t="n">
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-547621920103862272</t>
+          <t>t-728392912636149760</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,24 +8253,24 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-547636294059184128</t>
+          <t>t-772650812623290373</t>
         </is>
       </c>
       <c r="B602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-547637054578769920</t>
+          <t>t-772781827224285184</t>
         </is>
       </c>
       <c r="B603" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C603" t="n">
         <v>1</v>
@@ -8279,59 +8279,59 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-561132509098827778</t>
+          <t>t-773074057805737984</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-721601854761619457</t>
+          <t>t-864437375618830336</t>
         </is>
       </c>
       <c r="B605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-721697193174798336</t>
+          <t>t-922122902136172545</t>
         </is>
       </c>
       <c r="B606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-749065341586726912</t>
+          <t>t-1015491573092528128</t>
         </is>
       </c>
       <c r="B607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-769774311968079872</t>
+          <t>t-519137345065320448</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,7 +8344,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-807384780572459008</t>
+          <t>t-527780384159703040</t>
         </is>
       </c>
       <c r="B609" t="n">
@@ -8357,7 +8357,7 @@
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-838333127739260928</t>
+          <t>t-532513757776183296</t>
         </is>
       </c>
       <c r="B610" t="n">
@@ -8370,7 +8370,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-838721199874048000</t>
+          <t>t-561132509098827778</t>
         </is>
       </c>
       <c r="B611" t="n">
@@ -8383,33 +8383,33 @@
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-857545859868708865</t>
+          <t>t-581777426016956417</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>1</v>
       </c>
       <c r="C612" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-912888084739641344</t>
+          <t>t-683221184775733248</t>
         </is>
       </c>
       <c r="B613" t="n">
         <v>1</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-913276391470227456</t>
+          <t>t-713640428369612800</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,24 +8422,24 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-922601399271112704</t>
+          <t>t-713641932795215874</t>
         </is>
       </c>
       <c r="B615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C615" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-924905228415193088</t>
+          <t>t-713645035460251648</t>
         </is>
       </c>
       <c r="B616" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C616" t="n">
         <v>1</v>
@@ -8448,7 +8448,7 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-973099299910250497</t>
+          <t>t-713649642907406336</t>
         </is>
       </c>
       <c r="B617" t="n">
@@ -8461,7 +8461,7 @@
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-987647411144220672</t>
+          <t>t-713682083688767488</t>
         </is>
       </c>
       <c r="B618" t="n">
@@ -8474,7 +8474,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-714598783724597248</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,20 +8487,20 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-723687727468683264</t>
+          <t>t-714729459107119104</t>
         </is>
       </c>
       <c r="B620" t="n">
         <v>1</v>
       </c>
       <c r="C620" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-723764446498152448</t>
+          <t>t-715080311059517440</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,33 +8513,33 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-830849870890102784</t>
+          <t>t-721601854761619457</t>
         </is>
       </c>
       <c r="B622" t="n">
         <v>1</v>
       </c>
       <c r="C622" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-830867426568867840</t>
+          <t>t-721697193174798336</t>
         </is>
       </c>
       <c r="B623" t="n">
         <v>1</v>
       </c>
       <c r="C623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-934049646694998016</t>
+          <t>t-769774311968079872</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,11 +8552,11 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-1062500554134310912</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
         <v>1</v>
@@ -8565,11 +8565,11 @@
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-518708677113438208</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C626" t="n">
         <v>1</v>
@@ -8578,7 +8578,7 @@
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-828522614863785984</t>
         </is>
       </c>
       <c r="B627" t="n">
@@ -8591,7 +8591,7 @@
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-839825336552468480</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,20 +8604,20 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-857545859868708865</t>
         </is>
       </c>
       <c r="B629" t="n">
         <v>1</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,7 +8630,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-868766918035079168</t>
         </is>
       </c>
       <c r="B631" t="n">
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-931079635575586816</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-931432910795653120</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,20 +8695,20 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-932133115748696064</t>
         </is>
       </c>
       <c r="B636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-932454853443334144</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,11 +8721,11 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-973099299910250497</t>
         </is>
       </c>
       <c r="B638" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C638" t="n">
         <v>0</v>
@@ -8734,33 +8734,33 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-664725934935707650</t>
+          <t>t-756176490119647232</t>
         </is>
       </c>
       <c r="B639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-930049646444945408</t>
         </is>
       </c>
       <c r="B640" t="n">
         <v>1</v>
       </c>
       <c r="C640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-788398448508739585</t>
+          <t>t-930646694097645568</t>
         </is>
       </c>
       <c r="B641" t="n">
@@ -8773,7 +8773,7 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-788457694453637120</t>
+          <t>t-934049646694998016</t>
         </is>
       </c>
       <c r="B642" t="n">
@@ -8786,7 +8786,7 @@
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-795674749028462592</t>
+          <t>t-961643380684959749</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,7 +8799,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-817345259164221440</t>
+          <t>t-1062500554134310912</t>
         </is>
       </c>
       <c r="B644" t="n">
@@ -8812,11 +8812,11 @@
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-822370054381522945</t>
+          <t>t-538727466139803648</t>
         </is>
       </c>
       <c r="B645" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C645" t="n">
         <v>1</v>
@@ -8825,33 +8825,33 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-846329507103436800</t>
+          <t>t-550981789649735680</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-853130130432176128</t>
+          <t>t-768634144851013633</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-757366725759242240</t>
+          <t>t-769506262551715840</t>
         </is>
       </c>
       <c r="B648" t="n">
@@ -8864,7 +8864,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-757494302339571712</t>
+          <t>t-795674749028462592</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-757771911346749441</t>
+          <t>t-551339874838908928</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-757882635976790016</t>
+          <t>t-696949735576489985</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-758521629890650113</t>
+          <t>t-697001638108598272</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,11 +8916,11 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-757366725759242240</t>
         </is>
       </c>
       <c r="B653" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C653" t="n">
         <v>1</v>
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-971295308981383168</t>
+          <t>t-757494302339571712</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-757771911346749441</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-757882635976790016</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,20 +8968,20 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-758521629890650113</t>
         </is>
       </c>
       <c r="B657" t="n">
         <v>1</v>
       </c>
       <c r="C657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-777029515289563136</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,7 +8994,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-777052253362335745</t>
+          <t>t-555323393890058240</t>
         </is>
       </c>
       <c r="B659" t="n">
@@ -9007,33 +9007,33 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-534323907642142720</t>
+          <t>t-555327376440053760</t>
         </is>
       </c>
       <c r="B660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C660" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-703773712068116482</t>
+          <t>t-694164443224154112</t>
         </is>
       </c>
       <c r="B661" t="n">
         <v>1</v>
       </c>
       <c r="C661" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-703855663269556224</t>
+          <t>t-694343886626394113</t>
         </is>
       </c>
       <c r="B662" t="n">
@@ -9046,7 +9046,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-703940411761389571</t>
+          <t>t-694445663426207744</t>
         </is>
       </c>
       <c r="B663" t="n">
@@ -9059,11 +9059,11 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-815040393884467200</t>
+          <t>t-829520315575177217</t>
         </is>
       </c>
       <c r="B664" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C664" t="n">
         <v>1</v>
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-536910791295778816</t>
+          <t>t-832183739346063361</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,11 +9085,11 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-723151439586013184</t>
+          <t>t-836878014587744257</t>
         </is>
       </c>
       <c r="B666" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C666" t="n">
         <v>1</v>
@@ -9098,46 +9098,46 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-745418927845453825</t>
+          <t>t-697703131493355520</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>0</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-753418052503502848</t>
+          <t>t-698358832959873025</t>
         </is>
       </c>
       <c r="B668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C668" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-699788036561743872</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-797741772730306560</t>
         </is>
       </c>
       <c r="B670" t="n">
@@ -9150,7 +9150,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-797789959478353920</t>
         </is>
       </c>
       <c r="B671" t="n">
@@ -9163,7 +9163,7 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-797794521597644800</t>
         </is>
       </c>
       <c r="B672" t="n">
@@ -9176,7 +9176,7 @@
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-547033780322455552</t>
         </is>
       </c>
       <c r="B673" t="n">
@@ -9189,7 +9189,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-547601049230782464</t>
         </is>
       </c>
       <c r="B674" t="n">
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-548131100095442945</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-960667988255850496</t>
+          <t>t-557096941750743040</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,7 +9228,7 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-547361002212188160</t>
+          <t>t-668452855993511936</t>
         </is>
       </c>
       <c r="B677" t="n">
@@ -9241,7 +9241,7 @@
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-547937617547771905</t>
+          <t>t-734168300121395200</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,7 +9254,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-824143990274588672</t>
+          <t>t-798752071239409665</t>
         </is>
       </c>
       <c r="B679" t="n">
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-857803058968838144</t>
+          <t>t-815040393884467200</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,7 +9280,7 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-857867986841079808</t>
+          <t>t-816403303852425216</t>
         </is>
       </c>
       <c r="B681" t="n">
@@ -9293,7 +9293,7 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-814411097864159233</t>
+          <t>t-562992622130954243</t>
         </is>
       </c>
       <c r="B682" t="n">
@@ -9306,7 +9306,7 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-814414402203983872</t>
+          <t>t-670770027604213760</t>
         </is>
       </c>
       <c r="B683" t="n">
@@ -9319,7 +9319,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>t-814417111921479680</t>
+          <t>t-737185619730780161</t>
         </is>
       </c>
       <c r="B684" t="n">
@@ -9332,46 +9332,46 @@
     <row r="685">
       <c r="A685" t="inlineStr">
         <is>
-          <t>t-814418757657296896</t>
+          <t>t-745418927845453825</t>
         </is>
       </c>
       <c r="B685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C685" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>t-814543705935736832</t>
+          <t>t-753418052503502848</t>
         </is>
       </c>
       <c r="B686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="inlineStr">
         <is>
-          <t>t-941530453147836416</t>
+          <t>t-785106169677230080</t>
         </is>
       </c>
       <c r="B687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C687" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-785108107227561984</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-785110315553787904</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,20 +9397,20 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-697434910303264773</t>
+          <t>t-785111654228856832</t>
         </is>
       </c>
       <c r="B690" t="n">
         <v>1</v>
       </c>
       <c r="C690" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-704474821959163905</t>
+          <t>t-785153740848308225</t>
         </is>
       </c>
       <c r="B691" t="n">
@@ -9423,7 +9423,7 @@
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-706439330877714432</t>
+          <t>t-785284230573993984</t>
         </is>
       </c>
       <c r="B692" t="n">
@@ -9436,7 +9436,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-826783220507168768</t>
+          <t>t-785337680368467968</t>
         </is>
       </c>
       <c r="B693" t="n">
@@ -9449,24 +9449,24 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-962542177514500096</t>
+          <t>t-785343194607202304</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C694" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-564347457773920257</t>
+          <t>t-785389967123984386</t>
         </is>
       </c>
       <c r="B695" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C695" t="n">
         <v>1</v>
@@ -9475,11 +9475,11 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-698712295900229633</t>
+          <t>t-786190856218746880</t>
         </is>
       </c>
       <c r="B696" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C696" t="n">
         <v>1</v>
@@ -9488,50 +9488,50 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-729180420265279489</t>
+          <t>t-786491706409492481</t>
         </is>
       </c>
       <c r="B697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C697" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-729281192772542465</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B698" t="n">
         <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-757432883531304960</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B699" t="n">
         <v>0</v>
       </c>
       <c r="C699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-820620984231174145</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
         <v>1</v>
@@ -9540,7 +9540,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-966989390873378816</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-607931728045338625</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,11 +9566,11 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B703" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C703" t="n">
         <v>1</v>
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-824143990274588672</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,33 +9592,33 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-658189046523412480</t>
         </is>
       </c>
       <c r="B705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C705" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-979975965760720898</t>
+          <t>t-704474821959163905</t>
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-998840776758120448</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,11 +9631,11 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-580384120221487104</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
         <v>1</v>
@@ -9644,33 +9644,33 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-584288298249531392</t>
+          <t>t-754793839844397056</t>
         </is>
       </c>
       <c r="B709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-702366811925438465</t>
+          <t>t-979975965760720898</t>
         </is>
       </c>
       <c r="B710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-718718501679017984</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B711" t="n">
@@ -9683,7 +9683,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-753509017096364033</t>
+          <t>t-802066289527095297</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,7 +9696,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-802114052063252481</t>
         </is>
       </c>
       <c r="B713" t="n">
@@ -9709,11 +9709,11 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-935268837662052353</t>
+          <t>t-843318937064366080</t>
         </is>
       </c>
       <c r="B714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C714" t="n">
         <v>1</v>
@@ -9722,20 +9722,20 @@
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-935313787321585664</t>
+          <t>t-863292024522395649</t>
         </is>
       </c>
       <c r="B715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-935539265307660289</t>
+          <t>t-590978217546092544</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,72 +9748,72 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-935690311879282688</t>
+          <t>t-837085298324619265</t>
         </is>
       </c>
       <c r="B717" t="n">
         <v>1</v>
       </c>
       <c r="C717" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-936855089326604288</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B718" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C718" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-997052112126136320</t>
+          <t>t-796860246736052224</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-998772384076320768</t>
+          <t>t-812509278762242048</t>
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-998825906733920257</t>
+          <t>t-785264263749308416</t>
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C721" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-833819761821757440</t>
+          <t>t-785310124797669377</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-640851401892065280</t>
+          <t>t-785316828025421824</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-785325402981924866</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-837085298324619265</t>
+          <t>t-785347096031268864</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,7 +9865,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-683203716623646720</t>
+          <t>t-786434119072821249</t>
         </is>
       </c>
       <c r="B726" t="n">
@@ -9878,20 +9878,20 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-685863458978443264</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-760724447745699841</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-697592269315010562</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-697721034691096580</t>
+          <t>t-833912149630078976</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,33 +9930,33 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-797677972547219456</t>
+          <t>t-935334721793306624</t>
         </is>
       </c>
       <c r="B731" t="n">
         <v>1</v>
       </c>
       <c r="C731" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>t-935334721793306624</t>
+          <t>t-935382314166693889</t>
         </is>
       </c>
       <c r="B732" t="n">
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="inlineStr">
         <is>
-          <t>t-935382314166693889</t>
+          <t>t-940573035752386560</t>
         </is>
       </c>
       <c r="B733" t="n">
